--- a/2. ročník/Programové vybavení/Excel/mzdovyList.xlsx
+++ b/2. ročník/Programové vybavení/Excel/mzdovyList.xlsx
@@ -15,6 +15,13 @@
     <sheet name="Mzdový list" sheetId="1" r:id="rId1"/>
     <sheet name="Proměnné" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="děti">Proměnné!$C$18</definedName>
+    <definedName name="dítě1">Proměnné!$C$14</definedName>
+    <definedName name="dítě2">Proměnné!$C$15</definedName>
+    <definedName name="dítě3">Proměnné!$C$16</definedName>
+    <definedName name="Počet_dětí">Proměnné!$C$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Leden</t>
   </si>
@@ -103,16 +110,41 @@
   </si>
   <si>
     <t>Mzdové náklady</t>
+  </si>
+  <si>
+    <t>Slevy na děti</t>
+  </si>
+  <si>
+    <t>první</t>
+  </si>
+  <si>
+    <t>druhé</t>
+  </si>
+  <si>
+    <t>třetí a víc</t>
+  </si>
+  <si>
+    <t>Počet dětí</t>
+  </si>
+  <si>
+    <t>Daňové zvýhodnění (děti)</t>
+  </si>
+  <si>
+    <t>Daňový bonus</t>
+  </si>
+  <si>
+    <t>Odvod Daně</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$Kč-405]_-;\-* #,##0.00\ [$Kč-405]_-;_-* &quot;-&quot;??\ [$Kč-405]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +169,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +195,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,13 +224,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -200,19 +262,29 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Měna" xfId="3" builtinId="4"/>
     <cellStyle name="Neutrální" xfId="1" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Poznámka" xfId="4" builtinId="10"/>
     <cellStyle name="Vstup" xfId="2" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:M15"/>
+  <dimension ref="C1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,27 +574,29 @@
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H1" s="7" t="s">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>12</v>
       </c>
@@ -533,72 +607,93 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="1">
         <f>D3*0.15</f>
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="F3" s="1">
         <f>IF(Proměnné!$C$4="ANO",Proměnné!$C$2,0)</f>
         <v>2570</v>
       </c>
       <c r="G3" s="1">
-        <f>E3-F3</f>
-        <v>130</v>
-      </c>
-      <c r="H3" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H3" s="16">
+        <f>E3-F3-G3</f>
+        <v>-13477</v>
+      </c>
+      <c r="I3" s="1">
+        <f>IF(H3&lt;0,H3*-1,0)</f>
+        <v>13477</v>
+      </c>
+      <c r="J3" s="1">
+        <f>IF(H3&lt;0,0,H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <f>D3*Proměnné!$C$8</f>
-        <v>1277.9999999999998</v>
-      </c>
-      <c r="I3" s="1">
+        <v>709.99999999999989</v>
+      </c>
+      <c r="L3" s="1">
         <f>D3*Proměnné!$C$6</f>
-        <v>810</v>
-      </c>
-      <c r="J3" s="1">
+        <v>450</v>
+      </c>
+      <c r="M3" s="1">
         <f>D3*Proměnné!$C$12</f>
-        <v>4464</v>
-      </c>
-      <c r="K3" s="1">
+        <v>2480</v>
+      </c>
+      <c r="N3" s="1">
         <f>D3*Proměnné!$C$10</f>
-        <v>1620</v>
-      </c>
-      <c r="L3" s="1">
-        <f>K3+J3+D3</f>
-        <v>24084</v>
-      </c>
-      <c r="M3" s="1">
-        <f>D3-G3-H3-I3</f>
-        <v>15782</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="O3" s="1">
+        <f>H3+K3+L3+P3+M3+N3</f>
+        <v>13380</v>
+      </c>
+      <c r="P3" s="1">
+        <f>D3-J3-K3-L3+I3</f>
+        <v>22317</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -614,35 +709,47 @@
         <v>2570</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G14" si="0">E4-F4</f>
-        <v>5830</v>
-      </c>
-      <c r="H4" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:H14" si="0">E4-F4-G4</f>
+        <v>-6577</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I14" si="1">IF(H4&lt;0,H4*-1,0)</f>
+        <v>6577</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J14" si="2">IF(H4&lt;0,0,H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <f>D4*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <f>D4*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <f>D4*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <f>D4*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L14" si="1">K4+J4+D4</f>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O14" si="3">H4+K4+L4+P4+M4+N4</f>
         <v>74928</v>
       </c>
-      <c r="M4" s="1">
-        <f>D4-G4-H4-I4</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P14" si="4">D4-J4-K4-L4+I4</f>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -658,35 +765,47 @@
         <v>2570</v>
       </c>
       <c r="G5" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H5" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <f>D5*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <f>D5*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <f>D5*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <f>D5*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
+      <c r="O5" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M5" s="1">
-        <f>D5-G5-H5-I5</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -702,35 +821,47 @@
         <v>2570</v>
       </c>
       <c r="G6" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H6" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <f>D6*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <f>D6*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <f>D6*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <f>D6*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
+      <c r="O6" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M6" s="1">
-        <f>D6-G6-H6-I6</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -738,7 +869,7 @@
         <v>56000</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E4:E14" si="2">D7*0.15</f>
+        <f t="shared" ref="E7:E14" si="5">D7*0.15</f>
         <v>8400</v>
       </c>
       <c r="F7" s="1">
@@ -746,35 +877,47 @@
         <v>2570</v>
       </c>
       <c r="G7" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H7" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <f>D7*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <f>D7*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <f>D7*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7" s="1">
         <f>D7*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M7" s="1">
-        <f>D7-G7-H7-I7</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P7" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -782,7 +925,7 @@
         <v>56000</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="F8" s="1">
@@ -790,35 +933,47 @@
         <v>2570</v>
       </c>
       <c r="G8" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H8" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <f>D8*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <f>D8*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
         <f>D8*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <f>D8*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="1"/>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M8" s="1">
-        <f>D8-G8-H8-I8</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -826,7 +981,7 @@
         <v>56000</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="F9" s="1">
@@ -834,35 +989,47 @@
         <v>2570</v>
       </c>
       <c r="G9" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H9" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <f>D9*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <f>D9*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9" s="1">
         <f>D9*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K9" s="1">
+      <c r="N9" s="1">
         <f>D9*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M9" s="1">
-        <f>D9-G9-H9-I9</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -870,7 +1037,7 @@
         <v>56000</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="F10" s="1">
@@ -878,35 +1045,47 @@
         <v>2570</v>
       </c>
       <c r="G10" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H10" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <f>D10*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10" s="1">
         <f>D10*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10" s="1">
         <f>D10*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10" s="1">
         <f>D10*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="1"/>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M10" s="1">
-        <f>D10-G10-H10-I10</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -914,7 +1093,7 @@
         <v>56000</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="F11" s="1">
@@ -922,35 +1101,47 @@
         <v>2570</v>
       </c>
       <c r="G11" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H11" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <f>D11*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <f>D11*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11" s="1">
         <f>D11*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11" s="1">
         <f>D11*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="1"/>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M11" s="1">
-        <f>D11-G11-H11-I11</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -958,7 +1149,7 @@
         <v>56000</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="F12" s="1">
@@ -966,35 +1157,47 @@
         <v>2570</v>
       </c>
       <c r="G12" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H12" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H12" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <f>D12*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <f>D12*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12" s="1">
         <f>D12*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K12" s="1">
+      <c r="N12" s="1">
         <f>D12*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M12" s="1">
-        <f>D12-G12-H12-I12</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P12" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1205,7 @@
         <v>56000</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="F13" s="1">
@@ -1010,35 +1213,47 @@
         <v>2570</v>
       </c>
       <c r="G13" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H13" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H13" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <f>D13*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <f>D13*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13" s="1">
         <f>D13*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13" s="1">
         <f>D13*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M13" s="1">
-        <f>D13-G13-H13-I13</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P13" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1261,7 @@
         <v>56000</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="F14" s="1">
@@ -1054,45 +1269,57 @@
         <v>2570</v>
       </c>
       <c r="G14" s="1">
+        <f>IF(děti=0,0,IF(děti=1,dítě1,IF(děti=2,dítě1+dítě2,dítě1+dítě2+(děti-2)*dítě3)))</f>
+        <v>12407</v>
+      </c>
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
-        <v>5830</v>
-      </c>
-      <c r="H14" s="1">
+        <v>-6577</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>6577</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <f>D14*Proměnné!$C$8</f>
         <v>3975.9999999999995</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <f>D14*Proměnné!$C$6</f>
         <v>2520</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <f>D14*Proměnné!$C$12</f>
         <v>13888</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14" s="1">
         <f>D14*Proměnné!$C$10</f>
         <v>5040</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
+      <c r="O14" s="1">
+        <f t="shared" si="3"/>
         <v>74928</v>
       </c>
-      <c r="M14" s="1">
-        <f>D14-G14-H14-I14</f>
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <f t="shared" si="4"/>
+        <v>56081</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1">
         <f>SUM(D3:D14)</f>
-        <v>634000</v>
+        <v>626000</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>95100</v>
+        <v>93900</v>
       </c>
       <c r="F15" s="1">
         <f>SUM(F3:F14)</f>
@@ -1100,37 +1327,49 @@
       </c>
       <c r="G15" s="1">
         <f>SUM(G3:G14)</f>
-        <v>64260</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ref="H15:M15" si="3">SUM(H3:H14)</f>
-        <v>45013.999999999993</v>
+        <v>148884</v>
+      </c>
+      <c r="H15" s="16">
+        <f>SUM(H3:H14)</f>
+        <v>-85824</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>28530</v>
+        <f>SUM(I3:I14)</f>
+        <v>85824</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J15" si="4">SUM(J3:J14)</f>
-        <v>157232</v>
+        <f>SUM(J3:J14)</f>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15:L15" si="5">SUM(K3:K14)</f>
-        <v>57060</v>
+        <f t="shared" ref="K15:P15" si="6">SUM(K3:K14)</f>
+        <v>44445.999999999993</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="5"/>
-        <v>848292</v>
+        <f t="shared" si="6"/>
+        <v>28170</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="3"/>
-        <v>496196</v>
+        <f t="shared" ref="M15" si="7">SUM(M3:M14)</f>
+        <v>155248</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" ref="N15:O15" si="8">SUM(N3:N14)</f>
+        <v>56340</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="8"/>
+        <v>837588</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="6"/>
+        <v>639208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1139,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1423,7 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
@@ -1196,12 +1435,12 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,7 +1450,7 @@
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.09</v>
       </c>
     </row>
@@ -1223,15 +1462,54 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.248</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="14">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>